--- a/results-partial/HW_C016_120.xlsx
+++ b/results-partial/HW_C016_120.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,400 +445,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>27.74812892313493</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.46595126981292</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.33426616897164</v>
-      </c>
-      <c r="E2" t="n">
-        <v>29.30003637864701</v>
-      </c>
-      <c r="F2" t="n">
-        <v>29.33426616897164</v>
-      </c>
-      <c r="G2" t="n">
-        <v>27.87263483534981</v>
-      </c>
-      <c r="H2" t="n">
-        <v>29.66486156874257</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.52880121126942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.75698092535827</v>
+        <v>27.74812892313493</v>
       </c>
       <c r="C3" t="n">
-        <v>29.44388845694524</v>
+        <v>29.46595126981292</v>
       </c>
       <c r="D3" t="n">
-        <v>29.31590626028682</v>
+        <v>29.33426616897164</v>
       </c>
       <c r="E3" t="n">
-        <v>29.30377338195789</v>
+        <v>29.30003637864701</v>
       </c>
       <c r="F3" t="n">
-        <v>29.31590626028682</v>
+        <v>29.33426616897164</v>
       </c>
       <c r="G3" t="n">
-        <v>27.88694506786639</v>
+        <v>28.28601160585487</v>
       </c>
       <c r="H3" t="n">
-        <v>29.65080522938081</v>
+        <v>29.66486156874257</v>
       </c>
       <c r="I3" t="n">
-        <v>29.52393724908993</v>
+        <v>29.52880121126942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27.77940329728607</v>
+        <v>27.75698092535827</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4686582960714</v>
+        <v>29.44388845694524</v>
       </c>
       <c r="D4" t="n">
-        <v>29.33711217221326</v>
+        <v>29.31590626028682</v>
       </c>
       <c r="E4" t="n">
-        <v>29.35993295541719</v>
+        <v>29.30377338195789</v>
       </c>
       <c r="F4" t="n">
-        <v>29.33711217221326</v>
+        <v>29.31590626028682</v>
       </c>
       <c r="G4" t="n">
-        <v>27.91079793261691</v>
+        <v>28.30323021732633</v>
       </c>
       <c r="H4" t="n">
-        <v>29.67237505860282</v>
+        <v>29.65080522938081</v>
       </c>
       <c r="I4" t="n">
-        <v>29.54781602914492</v>
+        <v>29.52393724908993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.76010084592922</v>
+        <v>27.77940329728607</v>
       </c>
       <c r="C5" t="n">
-        <v>29.44591842153827</v>
+        <v>29.4686582960714</v>
       </c>
       <c r="D5" t="n">
-        <v>29.32469833545115</v>
+        <v>29.33711217221326</v>
       </c>
       <c r="E5" t="n">
-        <v>29.29315782675028</v>
+        <v>29.35993295541719</v>
       </c>
       <c r="F5" t="n">
-        <v>29.32469833545115</v>
+        <v>29.33711217221326</v>
       </c>
       <c r="G5" t="n">
-        <v>27.89104532458406</v>
+        <v>28.30084891790587</v>
       </c>
       <c r="H5" t="n">
-        <v>29.67068022056172</v>
+        <v>29.67237505860282</v>
       </c>
       <c r="I5" t="n">
-        <v>29.54441219101832</v>
+        <v>29.54781602914492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.78125461783738</v>
+        <v>27.76010084592922</v>
       </c>
       <c r="C6" t="n">
-        <v>29.44085637455575</v>
+        <v>29.44591842153827</v>
       </c>
       <c r="D6" t="n">
-        <v>29.3200376629029</v>
+        <v>29.32469833545115</v>
       </c>
       <c r="E6" t="n">
-        <v>29.32543033888556</v>
+        <v>29.29315782675028</v>
       </c>
       <c r="F6" t="n">
-        <v>29.32004825938944</v>
+        <v>29.32469833545115</v>
       </c>
       <c r="G6" t="n">
-        <v>27.91416365587124</v>
+        <v>28.28819435779138</v>
       </c>
       <c r="H6" t="n">
-        <v>29.67844141706296</v>
+        <v>29.67068022056172</v>
       </c>
       <c r="I6" t="n">
-        <v>29.54466198796314</v>
+        <v>29.54441219101832</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.76238316518699</v>
+        <v>27.78125461783738</v>
       </c>
       <c r="C7" t="n">
-        <v>29.46563944323798</v>
+        <v>29.44085637455575</v>
       </c>
       <c r="D7" t="n">
-        <v>29.32980762439385</v>
+        <v>29.3200376629029</v>
       </c>
       <c r="E7" t="n">
-        <v>29.33456310798847</v>
+        <v>29.32543033888556</v>
       </c>
       <c r="F7" t="n">
-        <v>29.32986091273476</v>
+        <v>29.32004825938944</v>
       </c>
       <c r="G7" t="n">
-        <v>27.89288664483315</v>
+        <v>28.30985407236666</v>
       </c>
       <c r="H7" t="n">
-        <v>29.68382041937317</v>
+        <v>29.67844141706296</v>
       </c>
       <c r="I7" t="n">
-        <v>29.55498198822539</v>
+        <v>29.54466198796314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.77356551444721</v>
+        <v>27.76238316518699</v>
       </c>
       <c r="C8" t="n">
-        <v>29.46735457421773</v>
+        <v>29.46563944323798</v>
       </c>
       <c r="D8" t="n">
-        <v>29.34861498583924</v>
+        <v>29.32980762439385</v>
       </c>
       <c r="E8" t="n">
-        <v>29.31249246747688</v>
+        <v>29.33456310798847</v>
       </c>
       <c r="F8" t="n">
-        <v>29.34861498583924</v>
+        <v>29.32986091273476</v>
       </c>
       <c r="G8" t="n">
-        <v>27.9025373986504</v>
+        <v>28.29484888919827</v>
       </c>
       <c r="H8" t="n">
-        <v>29.64570177656125</v>
+        <v>29.68382041937317</v>
       </c>
       <c r="I8" t="n">
-        <v>29.52556835993372</v>
+        <v>29.55498198822539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.78067889727183</v>
+        <v>27.77356551444721</v>
       </c>
       <c r="C9" t="n">
-        <v>29.47412094709592</v>
+        <v>29.46735457421773</v>
       </c>
       <c r="D9" t="n">
-        <v>29.33955815752594</v>
+        <v>29.34861498583924</v>
       </c>
       <c r="E9" t="n">
-        <v>29.33845111411387</v>
+        <v>29.31249246747688</v>
       </c>
       <c r="F9" t="n">
-        <v>29.33955815752594</v>
+        <v>29.34861498583924</v>
       </c>
       <c r="G9" t="n">
-        <v>27.9073374604864</v>
+        <v>28.30343512919922</v>
       </c>
       <c r="H9" t="n">
-        <v>29.67942536583637</v>
+        <v>29.64570177656125</v>
       </c>
       <c r="I9" t="n">
-        <v>29.53580493683017</v>
+        <v>29.52556835993372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.7931705289115</v>
+        <v>27.78067889727183</v>
       </c>
       <c r="C10" t="n">
-        <v>29.486674400828</v>
+        <v>29.47412094709592</v>
       </c>
       <c r="D10" t="n">
-        <v>29.35121238318395</v>
+        <v>29.33955815752594</v>
       </c>
       <c r="E10" t="n">
-        <v>29.34237904199006</v>
+        <v>29.33845111411387</v>
       </c>
       <c r="F10" t="n">
-        <v>29.35121238318395</v>
+        <v>29.33955815752594</v>
       </c>
       <c r="G10" t="n">
-        <v>27.92287299249184</v>
+        <v>28.3220789674712</v>
       </c>
       <c r="H10" t="n">
-        <v>29.69683099216793</v>
+        <v>29.67942536583637</v>
       </c>
       <c r="I10" t="n">
-        <v>29.57538767673162</v>
+        <v>29.53580493683017</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.7931705289115</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.486674400828</v>
+      </c>
+      <c r="D11" t="n">
+        <v>29.35121238318395</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.34237904199006</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.35121238318395</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.31920790042016</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.69683099216793</v>
+      </c>
+      <c r="I11" t="n">
+        <v>29.57538767673162</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>27.79610936803971</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>29.50305846872516</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>29.4007925970938</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>29.36388130823623</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>29.40072062866903</v>
       </c>
-      <c r="G11" t="n">
-        <v>27.92324805356987</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>28.31960654625003</v>
+      </c>
+      <c r="H12" t="n">
         <v>29.68008838992794</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>29.54193575016211</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.77317760834031</v>
-      </c>
-      <c r="C12" t="n">
-        <v>29.46621206530284</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.34020063478625</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29.32740979214634</v>
-      </c>
-      <c r="F12" t="n">
-        <v>29.34019982642652</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27.90244693663201</v>
-      </c>
-      <c r="H12" t="n">
-        <v>29.67230304382175</v>
-      </c>
-      <c r="I12" t="n">
-        <v>29.54233073803687</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.693034456962526</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.567023026445941</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.554232183806029</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.567022218086212</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1292693282916986</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.899125435481441</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.769153129696562</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9385275582266942</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9605151007828689</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9591251475729801</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9600341195889739</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9591251475729801</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9473678262913405</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9606020061595406</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.960557018524979</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.938847860499885</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9603148980300695</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9589901274641636</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9601368917797112</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9589901274641636</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9476440932855782</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9606688130136353</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9606298093842414</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9389763496922822</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9604465290684353</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.958957347678366</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9604132210256795</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.958957347678366</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.9475996464468945</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9607442065305156</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9605217414794279</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.938985061690163</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.960256012023576</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9591079163736113</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9601331532248455</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9591079163736113</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9474449541217344</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9607168457308554</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9605020792525538</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9391910963739993</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9603594358817927</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9591608005115793</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9602219588112563</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9591609377575534</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9478478976784788</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9609100417906696</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9605932545058573</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9387941397098064</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9602425104282735</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9589271098052142</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9601655028313503</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9589271372936289</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9474736776064344</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9607998675699185</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9606411269022868</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9390847608816232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9603698584404413</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9591894582971068</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9600943032210177</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9591894582971068</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9476121471099029</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9606997446080854</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9603636755292096</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9390280243652668</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9604670540380907</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9591651304881235</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9603694484957025</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9591651304881235</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9479660634747916</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9608938966691721</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9607643571288758</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9392166568541742</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.960476936997494</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9592546727221859</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9602231179356315</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9592546727221859</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9478496283145106</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9609980205616629</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9608140851540216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9392395401040109</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9606609102605267</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9596762422318339</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9604819089685174</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9596761086596932</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9480121155733435</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9608700647703982</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9608348264986332</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -863,400 +1155,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>19.71749016998847</v>
-      </c>
-      <c r="C2" t="n">
-        <v>26.83779562470322</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.58615028286894</v>
-      </c>
-      <c r="E2" t="n">
-        <v>27.03155947562494</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26.58618871826978</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.3842525043302</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.44959565633147</v>
-      </c>
-      <c r="I2" t="n">
-        <v>25.74224453730663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.73032195981172</v>
+        <v>19.71749016998847</v>
       </c>
       <c r="C3" t="n">
-        <v>26.84832714734107</v>
+        <v>26.83779562470322</v>
       </c>
       <c r="D3" t="n">
-        <v>26.61809751664412</v>
+        <v>26.58615028286894</v>
       </c>
       <c r="E3" t="n">
-        <v>27.01248553013162</v>
+        <v>27.03155947562494</v>
       </c>
       <c r="F3" t="n">
-        <v>26.61815150404941</v>
+        <v>26.58618871826978</v>
       </c>
       <c r="G3" t="n">
-        <v>20.40100076502922</v>
+        <v>23.80494623217787</v>
       </c>
       <c r="H3" t="n">
-        <v>26.42777620902709</v>
+        <v>26.44959565633147</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70560543274316</v>
+        <v>25.74224453730663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.70291114544299</v>
+        <v>19.73032195981172</v>
       </c>
       <c r="C4" t="n">
-        <v>26.81544982368924</v>
+        <v>26.84832714734107</v>
       </c>
       <c r="D4" t="n">
-        <v>26.59808346604417</v>
+        <v>26.61809751664412</v>
       </c>
       <c r="E4" t="n">
-        <v>27.00214248891006</v>
+        <v>27.01248553013162</v>
       </c>
       <c r="F4" t="n">
-        <v>26.59808346604417</v>
+        <v>26.61815150404941</v>
       </c>
       <c r="G4" t="n">
-        <v>20.37205065297812</v>
+        <v>23.78272842967402</v>
       </c>
       <c r="H4" t="n">
-        <v>26.41437967370847</v>
+        <v>26.42777620902709</v>
       </c>
       <c r="I4" t="n">
-        <v>25.69281670793693</v>
+        <v>25.70560543274316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.71614988475168</v>
+        <v>19.70291114544299</v>
       </c>
       <c r="C5" t="n">
-        <v>26.80600370546312</v>
+        <v>26.81544982368924</v>
       </c>
       <c r="D5" t="n">
-        <v>26.58090258791634</v>
+        <v>26.59808346604417</v>
       </c>
       <c r="E5" t="n">
-        <v>26.97461951938493</v>
+        <v>27.00214248891006</v>
       </c>
       <c r="F5" t="n">
-        <v>26.58090258791634</v>
+        <v>26.59808346604417</v>
       </c>
       <c r="G5" t="n">
-        <v>20.38548989700296</v>
+        <v>23.76225807067182</v>
       </c>
       <c r="H5" t="n">
-        <v>26.41804150610024</v>
+        <v>26.41437967370847</v>
       </c>
       <c r="I5" t="n">
-        <v>25.73396797098459</v>
+        <v>25.69281670793693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.70993381839491</v>
+        <v>19.71614988475168</v>
       </c>
       <c r="C6" t="n">
-        <v>26.82693722499933</v>
+        <v>26.80600370546312</v>
       </c>
       <c r="D6" t="n">
-        <v>26.56301959702565</v>
+        <v>26.58090258791634</v>
       </c>
       <c r="E6" t="n">
-        <v>26.99817671022085</v>
+        <v>26.97461951938493</v>
       </c>
       <c r="F6" t="n">
-        <v>26.56301959702565</v>
+        <v>26.58090258791634</v>
       </c>
       <c r="G6" t="n">
-        <v>20.38150583484578</v>
+        <v>23.74840287459633</v>
       </c>
       <c r="H6" t="n">
-        <v>26.43177649193372</v>
+        <v>26.41804150610024</v>
       </c>
       <c r="I6" t="n">
-        <v>25.72242078872828</v>
+        <v>25.73396797098459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>19.71819884433467</v>
+        <v>19.70993381839491</v>
       </c>
       <c r="C7" t="n">
-        <v>26.83465492449001</v>
+        <v>26.82693722499933</v>
       </c>
       <c r="D7" t="n">
-        <v>26.59060203605403</v>
+        <v>26.56301959702565</v>
       </c>
       <c r="E7" t="n">
-        <v>27.02615426454894</v>
+        <v>26.99817671022085</v>
       </c>
       <c r="F7" t="n">
-        <v>26.59053351602094</v>
+        <v>26.56301959702565</v>
       </c>
       <c r="G7" t="n">
-        <v>20.38078045645445</v>
+        <v>23.77447114231742</v>
       </c>
       <c r="H7" t="n">
-        <v>26.44762132471604</v>
+        <v>26.43177649193372</v>
       </c>
       <c r="I7" t="n">
-        <v>25.73072359734936</v>
+        <v>25.72242078872828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.71493673140955</v>
+        <v>19.71819884433467</v>
       </c>
       <c r="C8" t="n">
-        <v>26.79937183003241</v>
+        <v>26.83465492449001</v>
       </c>
       <c r="D8" t="n">
-        <v>26.60014331451866</v>
+        <v>26.59060203605403</v>
       </c>
       <c r="E8" t="n">
-        <v>26.99538255070928</v>
+        <v>27.02615426454894</v>
       </c>
       <c r="F8" t="n">
-        <v>26.60014331451866</v>
+        <v>26.59053351602094</v>
       </c>
       <c r="G8" t="n">
-        <v>20.38474864960924</v>
+        <v>23.78478890542415</v>
       </c>
       <c r="H8" t="n">
-        <v>26.42083312970303</v>
+        <v>26.44762132471604</v>
       </c>
       <c r="I8" t="n">
-        <v>25.72365194794936</v>
+        <v>25.73072359734936</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7038778279932</v>
+        <v>19.71493673140955</v>
       </c>
       <c r="C9" t="n">
-        <v>26.84851192489099</v>
+        <v>26.79937183003241</v>
       </c>
       <c r="D9" t="n">
-        <v>26.61390172511559</v>
+        <v>26.60014331451866</v>
       </c>
       <c r="E9" t="n">
-        <v>27.01445286383449</v>
+        <v>26.99538255070928</v>
       </c>
       <c r="F9" t="n">
-        <v>26.61393572120716</v>
+        <v>26.60014331451866</v>
       </c>
       <c r="G9" t="n">
-        <v>20.36815090537838</v>
+        <v>23.79751383151206</v>
       </c>
       <c r="H9" t="n">
-        <v>26.42111397386038</v>
+        <v>26.42083312970303</v>
       </c>
       <c r="I9" t="n">
-        <v>25.7042081251479</v>
+        <v>25.72365194794936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>19.73886991892218</v>
+        <v>19.7038778279932</v>
       </c>
       <c r="C10" t="n">
-        <v>26.83840564414651</v>
+        <v>26.84851192489099</v>
       </c>
       <c r="D10" t="n">
-        <v>26.60741493902486</v>
+        <v>26.61390172511559</v>
       </c>
       <c r="E10" t="n">
-        <v>27.02270341635679</v>
+        <v>27.01445286383449</v>
       </c>
       <c r="F10" t="n">
-        <v>26.60741493902486</v>
+        <v>26.61393572120716</v>
       </c>
       <c r="G10" t="n">
-        <v>20.40737780798768</v>
+        <v>23.77850365739371</v>
       </c>
       <c r="H10" t="n">
-        <v>26.44026110164843</v>
+        <v>26.42111397386038</v>
       </c>
       <c r="I10" t="n">
-        <v>25.71458823465747</v>
+        <v>25.7042081251479</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.73886991892218</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.83840564414651</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.60741493902486</v>
+      </c>
+      <c r="E11" t="n">
+        <v>27.02270341635679</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26.60741493902486</v>
+      </c>
+      <c r="G11" t="n">
+        <v>23.78783974287945</v>
+      </c>
+      <c r="H11" t="n">
+        <v>26.44026110164843</v>
+      </c>
+      <c r="I11" t="n">
+        <v>25.71458823465747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>19.72285312578322</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>26.84374084958813</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>26.63317497431196</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>27.03048112119296</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>26.63317497431196</v>
       </c>
-      <c r="G11" t="n">
-        <v>20.38957393155635</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>23.79876033697292</v>
+      </c>
+      <c r="H12" t="n">
         <v>26.45735935492105</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>25.74139959958241</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>19.71755434268326</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.8299198699344</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.59914904395243</v>
-      </c>
-      <c r="E12" t="n">
-        <v>27.01081579409149</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26.59915483383889</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20.38549314051724</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26.43287584219499</v>
-      </c>
-      <c r="I12" t="n">
-        <v>25.72116269423861</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>7.112365527251143</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.881594701269172</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.293261451408227</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6.881600491155634</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.6679387978339797</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.715321499511735</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.00360835155535</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.7423049129902215</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9297886768191531</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9267306499739433</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9315517068003207</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.926731344945717</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8628854904472207</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9173188239458119</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9018976095525042</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.7428311155990113</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9301705211034159</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9270135097137163</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9319479796156647</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9270139502476815</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.8631649579539246</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.916736090620523</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9011069416173957</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.7412928335870081</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9297075468965134</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9261451199752764</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9313384594168421</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9261451199752764</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8610646746881051</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9171720563504134</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9007370101411309</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7415807745428616</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9290643654131753</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9258471193966511</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9306482823889155</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9258471193966511</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.8611159033164133</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9161705510450638</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9011540798733239</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.7415475591428035</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.929898505676493</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9263185526425929</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9313275588530828</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9263185526425929</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.8623947577003914</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9171705988947643</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9017865020297423</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.742328260871954</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9303759725869926</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9268077730356897</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9326056943067476</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.926806967880541</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8627485040383382</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9174565481204798</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9019990889736463</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.7417798356359465</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9294341110239237</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9260666593098112</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9309054535154138</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9260666593098112</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.862519896670805</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9161116501028452</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9009340343440508</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.7410523302746965</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9297201972384936</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9263390728553803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.931529352567999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.92633942221399</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.861924930754047</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9161353414210189</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9006192204752351</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7429130620414944</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9303171895595138</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.926729315532554</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9317517357268931</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.926729315532554</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8627985395070348</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9171375526577532</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9014278919437024</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7427296018819933</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9305121576843493</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9274064726107879</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9323167835512349</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9274064726107879</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8635869002811187</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9181959816475195</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9017446525404372</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,400 +1865,692 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>PSNR [dB]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Rows</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>bm3d</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>da3d</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>ddid</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>nldd</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>nlm_default</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>nlmlbp</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>nlmglcm</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.66408655001434</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23.40772649229493</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.11844245859267</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23.15596726340857</v>
-      </c>
-      <c r="F2" t="n">
-        <v>23.11844245859267</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.75433587734473</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21.16540901400988</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19.7508146210884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.65992773565036</v>
+        <v>14.66408655001434</v>
       </c>
       <c r="C3" t="n">
-        <v>23.40491114816891</v>
+        <v>23.40772649229493</v>
       </c>
       <c r="D3" t="n">
-        <v>23.10608319839887</v>
+        <v>23.11844245859267</v>
       </c>
       <c r="E3" t="n">
-        <v>23.1756596086972</v>
+        <v>23.15596726340857</v>
       </c>
       <c r="F3" t="n">
-        <v>23.10607586382923</v>
+        <v>23.11844245859267</v>
       </c>
       <c r="G3" t="n">
-        <v>16.7430057003094</v>
+        <v>19.12612115950088</v>
       </c>
       <c r="H3" t="n">
-        <v>21.18259530504783</v>
+        <v>21.16540901400988</v>
       </c>
       <c r="I3" t="n">
-        <v>19.76536240898567</v>
+        <v>19.7508146210884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.66482750758352</v>
+        <v>14.65992773565036</v>
       </c>
       <c r="C4" t="n">
-        <v>23.45433915568227</v>
+        <v>23.40491114816891</v>
       </c>
       <c r="D4" t="n">
-        <v>23.18587847320519</v>
+        <v>23.10608319839887</v>
       </c>
       <c r="E4" t="n">
-        <v>23.22510446233682</v>
+        <v>23.1756596086972</v>
       </c>
       <c r="F4" t="n">
-        <v>23.18587910707294</v>
+        <v>23.10607586382923</v>
       </c>
       <c r="G4" t="n">
-        <v>16.75260636518701</v>
+        <v>19.13725722092979</v>
       </c>
       <c r="H4" t="n">
-        <v>21.21897729071021</v>
+        <v>21.18259530504783</v>
       </c>
       <c r="I4" t="n">
-        <v>19.8054869827637</v>
+        <v>19.76536240898567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14.66651342633821</v>
+        <v>14.66482750758352</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4030237785954</v>
+        <v>23.45433915568227</v>
       </c>
       <c r="D5" t="n">
-        <v>23.13652334505256</v>
+        <v>23.18587847320519</v>
       </c>
       <c r="E5" t="n">
-        <v>23.15488229140385</v>
+        <v>23.22510446233682</v>
       </c>
       <c r="F5" t="n">
-        <v>23.1364896374112</v>
+        <v>23.18587910707294</v>
       </c>
       <c r="G5" t="n">
-        <v>16.74507998569545</v>
+        <v>19.16082825254593</v>
       </c>
       <c r="H5" t="n">
-        <v>21.12655249795798</v>
+        <v>21.21897729071021</v>
       </c>
       <c r="I5" t="n">
-        <v>19.7112642730274</v>
+        <v>19.8054869827637</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.66991808155307</v>
+        <v>14.66651342633821</v>
       </c>
       <c r="C6" t="n">
-        <v>23.41296558072479</v>
+        <v>23.4030237785954</v>
       </c>
       <c r="D6" t="n">
-        <v>23.13384147331213</v>
+        <v>23.13652334505256</v>
       </c>
       <c r="E6" t="n">
-        <v>23.19315208032414</v>
+        <v>23.15488229140385</v>
       </c>
       <c r="F6" t="n">
-        <v>23.13384147331213</v>
+        <v>23.1364896374112</v>
       </c>
       <c r="G6" t="n">
-        <v>16.75890579050339</v>
+        <v>19.10476988707984</v>
       </c>
       <c r="H6" t="n">
-        <v>21.20434807015733</v>
+        <v>21.12655249795798</v>
       </c>
       <c r="I6" t="n">
-        <v>19.77403924731863</v>
+        <v>19.7112642730274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.67048354894018</v>
+        <v>14.66991808155307</v>
       </c>
       <c r="C7" t="n">
-        <v>23.4500121014501</v>
+        <v>23.41296558072479</v>
       </c>
       <c r="D7" t="n">
-        <v>23.16194378196834</v>
+        <v>23.13384147331213</v>
       </c>
       <c r="E7" t="n">
-        <v>23.23389115362441</v>
+        <v>23.19315208032414</v>
       </c>
       <c r="F7" t="n">
-        <v>23.16194378196834</v>
+        <v>23.13384147331213</v>
       </c>
       <c r="G7" t="n">
-        <v>16.75703966477404</v>
+        <v>19.13886238481469</v>
       </c>
       <c r="H7" t="n">
-        <v>21.20663313012475</v>
+        <v>21.20434807015733</v>
       </c>
       <c r="I7" t="n">
-        <v>19.78412877070525</v>
+        <v>19.77403924731863</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.68349634033455</v>
+        <v>14.67048354894018</v>
       </c>
       <c r="C8" t="n">
-        <v>23.43799978739407</v>
+        <v>23.4500121014501</v>
       </c>
       <c r="D8" t="n">
-        <v>23.14661619438073</v>
+        <v>23.16194378196834</v>
       </c>
       <c r="E8" t="n">
-        <v>23.21258571999401</v>
+        <v>23.23389115362441</v>
       </c>
       <c r="F8" t="n">
-        <v>23.14661619438073</v>
+        <v>23.16194378196834</v>
       </c>
       <c r="G8" t="n">
-        <v>16.77393551845586</v>
+        <v>19.13863130477948</v>
       </c>
       <c r="H8" t="n">
-        <v>21.20498154390098</v>
+        <v>21.20663313012475</v>
       </c>
       <c r="I8" t="n">
-        <v>19.77765431427203</v>
+        <v>19.78412877070525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.68181423843806</v>
+        <v>14.68349634033455</v>
       </c>
       <c r="C9" t="n">
-        <v>23.40418598206076</v>
+        <v>23.43799978739407</v>
       </c>
       <c r="D9" t="n">
-        <v>23.10759042630764</v>
+        <v>23.14661619438073</v>
       </c>
       <c r="E9" t="n">
-        <v>23.15958404049067</v>
+        <v>23.21258571999401</v>
       </c>
       <c r="F9" t="n">
-        <v>23.10759042630764</v>
+        <v>23.14661619438073</v>
       </c>
       <c r="G9" t="n">
-        <v>16.76324489319919</v>
+        <v>19.15106814009173</v>
       </c>
       <c r="H9" t="n">
-        <v>21.13653338148296</v>
+        <v>21.20498154390098</v>
       </c>
       <c r="I9" t="n">
-        <v>19.7248934968242</v>
+        <v>19.77765431427203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>14.65812643244132</v>
+        <v>14.68181423843806</v>
       </c>
       <c r="C10" t="n">
-        <v>23.41606609554189</v>
+        <v>23.40418598206076</v>
       </c>
       <c r="D10" t="n">
-        <v>23.112826950864</v>
+        <v>23.10759042630764</v>
       </c>
       <c r="E10" t="n">
-        <v>23.19024502783647</v>
+        <v>23.15958404049067</v>
       </c>
       <c r="F10" t="n">
-        <v>23.112826950864</v>
+        <v>23.10759042630764</v>
       </c>
       <c r="G10" t="n">
-        <v>16.7432932680783</v>
+        <v>19.12041953769804</v>
       </c>
       <c r="H10" t="n">
-        <v>21.19586775471614</v>
+        <v>21.13653338148296</v>
       </c>
       <c r="I10" t="n">
-        <v>19.78339192412444</v>
+        <v>19.7248934968242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.65812643244132</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.41606609554189</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.112826950864</v>
+      </c>
+      <c r="E11" t="n">
+        <v>23.19024502783647</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.112826950864</v>
+      </c>
+      <c r="G11" t="n">
+        <v>19.14206491132733</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.19586775471614</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.78339192412444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>14.67150906180261</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>23.43501356885257</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>23.15866202758495</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E12" t="n">
         <v>23.19615216374238</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F12" t="n">
         <v>23.15861586458816</v>
       </c>
-      <c r="G11" t="n">
-        <v>16.75718585394216</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="G12" t="n">
+        <v>19.13796981700643</v>
+      </c>
+      <c r="H12" t="n">
         <v>21.18548318772741</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>19.76224921283356</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.66907029230962</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.42262436907657</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.13684083296671</v>
-      </c>
-      <c r="E12" t="n">
-        <v>23.18972238118585</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23.1368321758327</v>
-      </c>
-      <c r="G12" t="n">
-        <v>16.75486329174895</v>
-      </c>
-      <c r="H12" t="n">
-        <v>21.18273811758355</v>
-      </c>
-      <c r="I12" t="n">
-        <v>19.76392852519433</v>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Improvement</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>8.75355407676695</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.467770540657085</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8.520652088876229</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.467761883523082</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.085792999439331</v>
-      </c>
-      <c r="H13" t="n">
-        <v>6.513667825273924</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.094858232884704</v>
+      <c r="A13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SSIM</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>noisy</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bm3d</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>da3d</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ddid</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nldd</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>nlm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>nlmlbp</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>nlmglcm</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4999733371287803</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8537055020028812</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8388193802802857</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8418902592919542</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8388193802802857</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6511291385821054</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.7497767952939217</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.6704827110543818</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4999172094979631</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8542084120250634</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8389396864476786</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8428153390050029</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8389391400568497</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6517203811771625</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7507434685514507</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6713273884431975</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.501615375892849</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8567045315225542</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8403221305833506</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8446693590955082</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8403223313206619</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6542990117700277</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.7541073652663284</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6742114391313495</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5000868303762288</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8544553890298906</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8378993868684557</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8426515009310791</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8378983052081103</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6518556088770974</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.7501591022600359</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6694423870856567</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5010486544845297</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8553856918137408</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.840836201950058</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8443600109817344</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.840836201950058</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6523617227067044</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.7530378607228542</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6737731693331094</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5007601342054748</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8547869533921466</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8389100496529459</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8435502365774962</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.8389100496529459</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6516911012710431</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.7525412438581741</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6720917082433043</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5015193119293118</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8557636331307399</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8403180722647571</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8444761024473725</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.8403180722647571</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6547986967026552</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.7528252107482361</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6732179827111574</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5011458742272626</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8541561949625079</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8367040605005458</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.842671326957417</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8367040605005458</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6515206643466491</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.7493536157011503</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6690274696428421</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5003141780158167</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8552412162483097</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8370337579324504</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8437137286561431</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.8370337579324504</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.6524843942035834</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.7519302862892702</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.6729048318337337</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5011743547087426</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8556701144586909</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8406616112878219</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8450832015534254</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8406597520440611</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6527833048781809</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.7538439685512853</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.6730924858152044</v>
       </c>
     </row>
   </sheetData>
